--- a/stage_1/Data_Entry_Formatting/Data_entry_formatting.xlsx
+++ b/stage_1/Data_Entry_Formatting/Data_entry_formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Entry_Formatting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80BC9B-4FDD-4C59-837D-4BDEEF16F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C4A04F-D224-430A-B4E2-2034C0B8B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,6 +705,12 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E8" s="7">
+        <f>SUM(E2:E7)</f>
+        <v>39200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_1/Data_Entry_Formatting/Data_entry_formatting.xlsx
+++ b/stage_1/Data_Entry_Formatting/Data_entry_formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Data_Entry_Formatting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C4A04F-D224-430A-B4E2-2034C0B8B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9444F5-D584-453F-9A6E-6DAE6490C102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Product</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Soap - Personal</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +201,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +533,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,6 +710,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="7">
         <f>SUM(E2:E7)</f>
         <v>39200</v>
